--- a/Grafica Quick sort.xlsx
+++ b/Grafica Quick sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\OneDrive\Documentos\GitHub\Quiz4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED31CAF-28BD-4C70-B6EA-83D6F2537C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17366F2C-283E-4D94-92D5-E6AE01BC42C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E85BD45-43B4-4225-A27D-66FFACE55973}"/>
   </bookViews>
@@ -47,25 +47,28 @@
     <t xml:space="preserve">tamaño del arreglo </t>
   </si>
   <si>
-    <t>0.00156097412109375</t>
+    <t>0.0015</t>
   </si>
   <si>
-    <t>0.006038165092468262</t>
+    <t>0.0060</t>
   </si>
   <si>
-    <t>0.0026254653930664062</t>
+    <t>0.0026</t>
   </si>
   <si>
-    <t>0.008579826354980469</t>
+    <t>0.0085</t>
   </si>
   <si>
-    <t>0.011879372596740722</t>
+    <t>0.0118</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,13 +98,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -129,6 +141,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de ejecucion según tamaño de arreglo</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -193,32 +240,32 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$6:$E$10</c:f>
+              <c:f>Hoja1!$C$7:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.00156097412109375</c:v>
+                  <c:v>0.0015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.006038165092468262</c:v>
+                  <c:v>0.0060</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0026254653930664062</c:v>
+                  <c:v>0.0026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.008579826354980469</c:v>
+                  <c:v>0.0085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.011879372596740722</c:v>
+                  <c:v>0.0118</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$6:$F$10</c:f>
+              <c:f>Hoja1!$D$7:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -265,6 +312,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo de ejecución</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> en segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -330,7 +436,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del arreglo</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -367,7 +533,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -964,15 +1130,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -999,6 +1165,17 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02A53761-E20D-4824-98E4-F6AAD3D62BA8}" name="Tabla1" displayName="Tabla1" ref="C6:D11" totalsRowShown="0">
+  <autoFilter ref="C6:D11" xr:uid="{02A53761-E20D-4824-98E4-F6AAD3D62BA8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{590D342B-DE17-4A87-B0DA-2E4A1F87DA9E}" name="tiempo en segundos" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C21F670A-D288-4A14-B0BC-EE04B1707268}" name="tamaño del arreglo " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1318,70 +1495,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9100B58F-E36D-4FB1-A4F0-7904534F50FC}">
-  <dimension ref="E3:F10"/>
+  <dimension ref="C4:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="D7" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="D8" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="D9" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="D10" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10">
+      <c r="D11" s="2">
         <v>5000</v>
       </c>
     </row>
@@ -1389,5 +1567,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>